--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="AccountCheck" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="254">
   <si>
     <t>RestAddBook</t>
   </si>
@@ -732,6 +732,54 @@
   </si>
   <si>
     <t>Invalid_City_State_Zip_Combination</t>
+  </si>
+  <si>
+    <t>ChaseUsername</t>
+  </si>
+  <si>
+    <t>ChasePassword</t>
+  </si>
+  <si>
+    <t>ac2018demo</t>
+  </si>
+  <si>
+    <t>FormFree2018</t>
+  </si>
+  <si>
+    <t>FormFree2019</t>
+  </si>
+  <si>
+    <t>FormFree2020</t>
+  </si>
+  <si>
+    <t>FormFree2021</t>
+  </si>
+  <si>
+    <t>FormFree2022</t>
+  </si>
+  <si>
+    <t>WellsFargo Username</t>
+  </si>
+  <si>
+    <t>WellsFargo Password</t>
+  </si>
+  <si>
+    <t>ffwellstest19</t>
+  </si>
+  <si>
+    <t>TestWells19a</t>
+  </si>
+  <si>
+    <t>ffwellstest20</t>
+  </si>
+  <si>
+    <t>ffwellstest21</t>
+  </si>
+  <si>
+    <t>ffwellstest22</t>
+  </si>
+  <si>
+    <t>ffwellstest23</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1171,15 @@
     <col min="17" max="17" width="13.28515625" style="1" customWidth="1"/>
     <col min="18" max="21" width="9.140625" style="1"/>
     <col min="22" max="22" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1196,8 +1249,20 @@
       <c r="W1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1267,8 +1332,20 @@
       <c r="W2" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1338,8 +1415,20 @@
       <c r="W3" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1409,8 +1498,20 @@
       <c r="W4" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1480,8 +1581,20 @@
       <c r="W5" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1551,8 +1664,20 @@
       <c r="W6" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1611,7 +1736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1670,7 +1795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1729,7 +1854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +1913,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1847,7 +1972,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1906,7 +2031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1965,7 +2090,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2024,7 +2149,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2083,7 +2208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6914,7 +7039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AccountCheck" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Finicity" sheetId="3" r:id="rId3"/>
     <sheet name="RestAssured" sheetId="2" r:id="rId4"/>
     <sheet name="Zillow" sheetId="5" r:id="rId5"/>
+    <sheet name="PPE_Heloc" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="322">
   <si>
     <t>RestAddBook</t>
   </si>
@@ -780,6 +781,210 @@
   </si>
   <si>
     <t>ffwellstest23</t>
+  </si>
+  <si>
+    <t>veteran_status</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>cashout_amount</t>
+  </si>
+  <si>
+    <t>down_payment</t>
+  </si>
+  <si>
+    <t>loan_purpose</t>
+  </si>
+  <si>
+    <t>mortgage_balance</t>
+  </si>
+  <si>
+    <t>loan_amortization</t>
+  </si>
+  <si>
+    <t>adjustable_rate_terms</t>
+  </si>
+  <si>
+    <t>loan_terms</t>
+  </si>
+  <si>
+    <t>loan_types</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
+    <t>monthly_hoa</t>
+  </si>
+  <si>
+    <t>mortgage_insurance</t>
+  </si>
+  <si>
+    <t>property_tax</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>property_use</t>
+  </si>
+  <si>
+    <t>purchase_price</t>
+  </si>
+  <si>
+    <t>representative_fico_score</t>
+  </si>
+  <si>
+    <t>ACCOUNT_OB</t>
+  </si>
+  <si>
+    <t>f99e1b75-84b2-40c0-bc25-a1a97caec691</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>atlanta</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>VARIABLE","FIXED</t>
+  </si>
+  <si>
+    <t>10YEAR","7YEAR","5YEAR</t>
+  </si>
+  <si>
+    <t>15","30</t>
+  </si>
+  <si>
+    <t>ALTAEXPANDEDCRITERIA</t>
+  </si>
+  <si>
+    <t>DETCH</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>"true"</t>
+  </si>
+  <si>
+    <t>"false"</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>DETCO</t>
+  </si>
+  <si>
+    <t>FHA_Empty_Mortgage_Balance</t>
+  </si>
+  <si>
+    <t>Cash_Amount_less_than_25000</t>
+  </si>
+  <si>
+    <t>Equal_Cash_and_Mortgage_Amount</t>
+  </si>
+  <si>
+    <t>Property_Value_Less_Than_Cash_Amount</t>
+  </si>
+  <si>
+    <t>Invalid_Current_Property_Value</t>
+  </si>
+  <si>
+    <t>Invalid_Mortgage_Balance</t>
+  </si>
+  <si>
+    <t>Invalid_Customer_Id</t>
+  </si>
+  <si>
+    <t>f99e1b75-84b2-40c0-bc25-a1a97caec6</t>
+  </si>
+  <si>
+    <t>Invalid_Account_Id</t>
+  </si>
+  <si>
+    <t>ACCOUNT_</t>
+  </si>
+  <si>
+    <t>Invalid_Loan_Types</t>
+  </si>
+  <si>
+    <t>ALTAEXPANDEDCRITER</t>
+  </si>
+  <si>
+    <t>Invalid_Property_Type</t>
+  </si>
+  <si>
+    <t>VARIABLE","FI</t>
+  </si>
+  <si>
+    <t>Invalid_Loan_Amortization</t>
+  </si>
+  <si>
+    <t>Invalid_Fico_Score</t>
+  </si>
+  <si>
+    <t>Invalid_Adjustable_Rate_Terms</t>
+  </si>
+  <si>
+    <t>10YEAR","7YEAR","5Y</t>
+  </si>
+  <si>
+    <t>Invalid_loan_purpose</t>
+  </si>
+  <si>
+    <t>Purc</t>
+  </si>
+  <si>
+    <t>FHA_Primary_house_good_fico_of_30_Fixed_for_Duplex_Up_And_Down</t>
+  </si>
+  <si>
+    <t>DUPUD</t>
+  </si>
+  <si>
+    <t>HDUP</t>
+  </si>
+  <si>
+    <t>FHA_Primary_house_fair_fico_of_30_Fixed_for_Detached_Condominium</t>
+  </si>
+  <si>
+    <t>TOWNH</t>
+  </si>
+  <si>
+    <t>STALL</t>
+  </si>
+  <si>
+    <t>FHA_Primary_house_good_fico_of_15_30_Fixed_Variable_for_Single_family</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>FHA_Primary_house_good_fico_of_30_Variable_for_Duplex_Side_By_Side</t>
+  </si>
+  <si>
+    <t>FHA_Primary_house_excellent_fico_of_15_Fixed_for_Parking_Stall</t>
+  </si>
+  <si>
+    <t>FHA_Secondary_house_good_fico_of_15_30_Fixed_Variable_for_Townhouse</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>FHA_Investment_house_good_fico_of_15_Variable_for_Half_Duplex</t>
+  </si>
+  <si>
+    <t>Investment</t>
   </si>
 </sst>
 </file>
@@ -831,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -847,6 +1052,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1151,9 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2875,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -8177,4 +8384,1748 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H2" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>65</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W2" s="7">
+        <v>720</v>
+      </c>
+      <c r="X2" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="1">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>65</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V3" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W3" s="7">
+        <v>660</v>
+      </c>
+      <c r="X3" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>65</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W4" s="7">
+        <v>800</v>
+      </c>
+      <c r="X4" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H5" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>65</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V5" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W5" s="7">
+        <v>720</v>
+      </c>
+      <c r="X5" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H6" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" s="1">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>65</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V6" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W6" s="7">
+        <v>720</v>
+      </c>
+      <c r="X6" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H7" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>65</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W7" s="7">
+        <v>720</v>
+      </c>
+      <c r="X7" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H8" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I8" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K8" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P8" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>65</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="V8" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W8" s="7">
+        <v>720</v>
+      </c>
+      <c r="X8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H9" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>65</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V9" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W9" s="7">
+        <v>660</v>
+      </c>
+      <c r="X9" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I10" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50000</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>65</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V10" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W10" s="7">
+        <v>660</v>
+      </c>
+      <c r="X10" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H11" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>65</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V11" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W11" s="7">
+        <v>660</v>
+      </c>
+      <c r="X11" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H12" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P12" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>65</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V12" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W12" s="7">
+        <v>660</v>
+      </c>
+      <c r="X12" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7">
+        <v>77777</v>
+      </c>
+      <c r="H13" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>65</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V13" s="7">
+        <v>900000</v>
+      </c>
+      <c r="W13" s="7">
+        <v>660</v>
+      </c>
+      <c r="X13" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H14" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>65</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V14" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W14" s="7">
+        <v>720</v>
+      </c>
+      <c r="X14" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H15" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>65</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W15" s="7">
+        <v>720</v>
+      </c>
+      <c r="X15" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>65</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W16" s="7">
+        <v>720</v>
+      </c>
+      <c r="X16" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H17" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I17" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>65</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W17" s="7">
+        <v>720</v>
+      </c>
+      <c r="X17" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H18" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I18" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K18" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P18" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>65</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V18" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W18" s="7">
+        <v>720</v>
+      </c>
+      <c r="X18" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H19" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>65</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V19" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W19" s="7">
+        <v>720</v>
+      </c>
+      <c r="X19" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H20" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>65</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V20" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W20" s="7">
+        <v>720</v>
+      </c>
+      <c r="X20" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H21" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K21" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P21" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>65</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V21" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W21" s="7">
+        <v>-256</v>
+      </c>
+      <c r="X21" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H22" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I22" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P22" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>65</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V22" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W22" s="7">
+        <v>720</v>
+      </c>
+      <c r="X22" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="7">
+        <v>94587</v>
+      </c>
+      <c r="H23" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I23" s="7">
+        <v>25000</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="7">
+        <v>20000</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>65</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2000</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V23" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W23" s="7">
+        <v>720</v>
+      </c>
+      <c r="X23" s="7">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>